--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$176</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6026" uniqueCount="771">
   <si>
     <t>Path</t>
   </si>
@@ -1372,6 +1372,16 @@
     <t>Claim.diagnosis.extension</t>
   </si>
   <si>
+    <t>majorDiagnosticCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/major-diagnostic-category}
+</t>
+  </si>
+  <si>
+    <t>The body system or disease related groupings of clinical conditions, based on diagnosis codes</t>
+  </si>
+  <si>
     <t>Claim.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1488,6 +1498,16 @@
   </si>
   <si>
     <t>Claim.procedure.extension</t>
+  </si>
+  <si>
+    <t>procedureGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-group}
+</t>
+  </si>
+  <si>
+    <t>Groups assigned to categorize related procedures</t>
   </si>
   <si>
     <t>Claim.procedure.modifierExtension</t>
@@ -2525,7 +2545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL174"/>
+  <dimension ref="A1:AL176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10710,7 +10730,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10732,14 +10752,12 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10776,16 +10794,14 @@
         <v>42</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>145</v>
@@ -10809,48 +10825,46 @@
         <v>42</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>96</v>
+        <v>436</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>287</v>
+        <v>437</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -10898,7 +10912,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10907,7 +10921,7 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
@@ -10924,42 +10938,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>440</v>
+        <v>126</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -11008,19 +11022,19 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
@@ -11029,12 +11043,12 @@
         <v>42</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11057,17 +11071,19 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11092,13 +11108,13 @@
         <v>42</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>446</v>
+        <v>42</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -11116,7 +11132,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>50</v>
@@ -11142,7 +11158,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11150,10 +11166,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -11165,19 +11181,17 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>157</v>
+        <v>445</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -11205,10 +11219,10 @@
         <v>214</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11226,13 +11240,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -11252,7 +11266,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11263,7 +11277,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
@@ -11278,14 +11292,16 @@
         <v>157</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11313,10 +11329,10 @@
         <v>214</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11334,13 +11350,13 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>42</v>
@@ -11360,7 +11376,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11386,16 +11402,14 @@
         <v>157</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11423,10 +11437,10 @@
         <v>214</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11444,7 +11458,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -11470,7 +11484,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11481,7 +11495,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11493,17 +11507,19 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11528,13 +11544,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>42</v>
+        <v>470</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -11552,13 +11568,13 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
@@ -11578,7 +11594,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11589,7 +11605,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -11601,16 +11617,18 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>137</v>
+        <v>472</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>138</v>
+        <v>473</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -11658,19 +11676,19 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>139</v>
+        <v>471</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11679,23 +11697,23 @@
         <v>42</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -11707,17 +11725,15 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11766,19 +11782,19 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>42</v>
@@ -11792,11 +11808,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11809,26 +11825,22 @@
         <v>42</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11864,19 +11876,17 @@
         <v>42</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB86" s="2"/>
       <c r="AC86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11897,20 +11907,22 @@
         <v>42</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>50</v>
@@ -11925,18 +11937,16 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>42</v>
       </c>
@@ -11984,19 +11994,19 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>475</v>
+        <v>145</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -12005,16 +12015,16 @@
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12027,25 +12037,25 @@
         <v>42</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>480</v>
+        <v>287</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>452</v>
+        <v>126</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -12070,13 +12080,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>482</v>
+        <v>42</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>483</v>
+        <v>42</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -12094,7 +12104,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -12106,7 +12116,7 @@
         <v>42</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>42</v>
@@ -12115,12 +12125,12 @@
         <v>42</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12128,7 +12138,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>50</v>
@@ -12143,17 +12153,17 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -12202,10 +12212,10 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>50</v>
@@ -12228,7 +12238,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12236,10 +12246,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -12251,17 +12261,19 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>489</v>
+        <v>157</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12289,10 +12301,10 @@
         <v>214</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>42</v>
@@ -12310,13 +12322,13 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>42</v>
@@ -12336,7 +12348,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12347,7 +12359,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12359,17 +12371,17 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>496</v>
+        <v>237</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12418,13 +12430,13 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
@@ -12444,7 +12456,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12455,7 +12467,7 @@
         <v>50</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -12464,22 +12476,20 @@
         <v>42</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>278</v>
+        <v>495</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -12504,13 +12514,13 @@
         <v>42</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>42</v>
@@ -12528,13 +12538,13 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
@@ -12549,12 +12559,12 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>505</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12565,7 +12575,7 @@
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -12577,16 +12587,18 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>502</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>137</v>
+        <v>503</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>138</v>
+        <v>504</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -12634,19 +12646,19 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>139</v>
+        <v>501</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12655,20 +12667,20 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>41</v>
@@ -12680,21 +12692,23 @@
         <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>507</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>143</v>
+        <v>508</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12742,10 +12756,10 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>145</v>
+        <v>506</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>41</v>
@@ -12754,7 +12768,7 @@
         <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
@@ -12763,48 +12777,44 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>140</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -12852,19 +12862,19 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12873,23 +12883,23 @@
         <v>42</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
@@ -12898,21 +12908,21 @@
         <v>42</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>510</v>
+        <v>142</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>42</v>
       </c>
@@ -12960,19 +12970,19 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>509</v>
+        <v>145</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12981,47 +12991,47 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>514</v>
+        <v>287</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>515</v>
+        <v>288</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>516</v>
+        <v>125</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>517</v>
+        <v>126</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13070,19 +13080,19 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>513</v>
+        <v>289</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>42</v>
@@ -13091,12 +13101,12 @@
         <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13104,7 +13114,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>50</v>
@@ -13116,22 +13126,20 @@
         <v>42</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13180,10 +13188,10 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>50</v>
@@ -13195,10 +13203,10 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>42</v>
@@ -13206,7 +13214,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13229,17 +13237,19 @@
         <v>51</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13288,7 +13298,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -13314,7 +13324,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13337,17 +13347,19 @@
         <v>42</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N100" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13396,7 +13408,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -13411,10 +13423,10 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>42</v>
@@ -13422,7 +13434,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13430,10 +13442,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>42</v>
@@ -13442,22 +13454,20 @@
         <v>42</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13506,13 +13516,13 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>42</v>
@@ -13532,7 +13542,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13555,19 +13565,17 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>538</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13616,7 +13624,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13642,7 +13650,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13653,7 +13661,7 @@
         <v>40</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>42</v>
@@ -13665,17 +13673,19 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>278</v>
+        <v>52</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N103" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
@@ -13724,13 +13734,13 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>42</v>
@@ -13750,7 +13760,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13773,16 +13783,20 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>52</v>
+        <v>544</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>137</v>
+        <v>545</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13830,7 +13844,7 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>139</v>
+        <v>543</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13842,7 +13856,7 @@
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13851,23 +13865,23 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
@@ -13879,18 +13893,18 @@
         <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>142</v>
+        <v>550</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13938,19 +13952,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>145</v>
+        <v>549</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13959,48 +13973,44 @@
         <v>42</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -14048,19 +14058,19 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -14069,23 +14079,23 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
@@ -14097,20 +14107,18 @@
         <v>42</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>551</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>552</v>
+        <v>142</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>553</v>
+        <v>143</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>42</v>
       </c>
@@ -14158,19 +14166,19 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -14179,45 +14187,47 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>557</v>
+        <v>287</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>559</v>
+        <v>126</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14242,13 +14252,13 @@
         <v>42</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>560</v>
+        <v>42</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>561</v>
+        <v>42</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>42</v>
@@ -14266,19 +14276,19 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>42</v>
@@ -14287,12 +14297,12 @@
         <v>42</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14300,7 +14310,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>50</v>
@@ -14315,17 +14325,19 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14374,10 +14386,10 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>50</v>
@@ -14400,7 +14412,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14411,7 +14423,7 @@
         <v>40</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>42</v>
@@ -14423,17 +14435,17 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -14458,13 +14470,13 @@
         <v>42</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>42</v>
+        <v>567</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>42</v>
@@ -14482,13 +14494,13 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>42</v>
@@ -14508,7 +14520,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14531,16 +14543,18 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>52</v>
+        <v>569</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>137</v>
+        <v>570</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>138</v>
+        <v>571</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14588,7 +14602,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>139</v>
+        <v>568</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14600,7 +14614,7 @@
         <v>42</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14609,12 +14623,12 @@
         <v>42</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14637,16 +14651,18 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>97</v>
+        <v>574</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>98</v>
+        <v>575</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14682,17 +14698,19 @@
         <v>42</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB112" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>145</v>
+        <v>573</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -14704,7 +14722,7 @@
         <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14718,11 +14736,9 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
@@ -14743,13 +14759,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>574</v>
+        <v>52</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>138</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14800,19 +14816,19 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>42</v>
@@ -14821,16 +14837,14 @@
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>42</v>
       </c>
@@ -14839,7 +14853,7 @@
         <v>40</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>42</v>
@@ -14851,13 +14865,13 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>577</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>578</v>
+        <v>97</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>578</v>
+        <v>98</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14896,16 +14910,14 @@
         <v>42</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB114" s="2"/>
       <c r="AC114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>145</v>
@@ -14917,7 +14929,7 @@
         <v>41</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>102</v>
@@ -14929,48 +14941,46 @@
         <v>42</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>287</v>
+        <v>581</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15018,7 +15028,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -15027,7 +15037,7 @@
         <v>41</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>102</v>
@@ -15044,15 +15054,17 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>50</v>
@@ -15067,18 +15079,16 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>358</v>
+        <v>583</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>42</v>
       </c>
@@ -15126,19 +15136,19 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>580</v>
+        <v>145</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
@@ -15147,16 +15157,16 @@
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15169,23 +15179,25 @@
         <v>42</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>585</v>
+        <v>287</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N117" t="s" s="2">
-        <v>587</v>
+        <v>126</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -15234,7 +15246,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -15246,7 +15258,7 @@
         <v>42</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>42</v>
@@ -15255,12 +15267,12 @@
         <v>42</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15268,10 +15280,10 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>42</v>
@@ -15286,14 +15298,14 @@
         <v>358</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -15342,13 +15354,13 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>42</v>
@@ -15368,7 +15380,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15394,14 +15406,14 @@
         <v>358</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15450,7 +15462,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15476,7 +15488,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15502,14 +15514,14 @@
         <v>358</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15558,7 +15570,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15584,7 +15596,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15595,7 +15607,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15607,17 +15619,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15642,13 +15654,13 @@
         <v>42</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>42</v>
@@ -15666,13 +15678,13 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
@@ -15692,7 +15704,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15703,7 +15715,7 @@
         <v>40</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>42</v>
@@ -15715,19 +15727,17 @@
         <v>42</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
@@ -15752,13 +15762,13 @@
         <v>42</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15776,13 +15786,13 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>42</v>
@@ -15802,15 +15812,15 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>50</v>
@@ -15828,16 +15838,14 @@
         <v>157</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15865,10 +15873,10 @@
         <v>214</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>42</v>
@@ -15886,10 +15894,10 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>50</v>
@@ -15912,7 +15920,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15923,7 +15931,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>42</v>
@@ -15938,16 +15946,16 @@
         <v>157</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15975,10 +15983,10 @@
         <v>214</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -15996,13 +16004,13 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>42</v>
@@ -16022,18 +16030,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -16048,16 +16056,16 @@
         <v>157</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -16085,10 +16093,10 @@
         <v>214</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16106,13 +16114,13 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>42</v>
@@ -16132,7 +16140,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16143,7 +16151,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -16155,17 +16163,19 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>412</v>
+        <v>157</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -16190,13 +16200,13 @@
         <v>42</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>42</v>
+        <v>633</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16214,13 +16224,13 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>42</v>
@@ -16232,7 +16242,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -16240,7 +16250,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16251,7 +16261,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>42</v>
@@ -16263,17 +16273,19 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>640</v>
+        <v>157</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -16301,10 +16313,10 @@
         <v>214</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -16322,13 +16334,13 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>42</v>
@@ -16340,7 +16352,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -16348,7 +16360,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16371,17 +16383,17 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>647</v>
+        <v>412</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
@@ -16430,7 +16442,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16448,7 +16460,7 @@
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>42</v>
@@ -16456,7 +16468,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16479,16 +16491,18 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>52</v>
+        <v>646</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>137</v>
+        <v>647</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>138</v>
+        <v>648</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16512,13 +16526,13 @@
         <v>42</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>42</v>
+        <v>650</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>42</v>
+        <v>651</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>42</v>
@@ -16536,7 +16550,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>139</v>
+        <v>645</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16548,16 +16562,16 @@
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" hidden="true">
@@ -16566,14 +16580,14 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>42</v>
@@ -16585,18 +16599,18 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>96</v>
+        <v>653</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>142</v>
+        <v>654</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>42</v>
       </c>
@@ -16632,31 +16646,31 @@
         <v>42</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>145</v>
+        <v>652</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16665,16 +16679,14 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>653</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16695,13 +16707,13 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>654</v>
+        <v>52</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>655</v>
+        <v>137</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>655</v>
+        <v>138</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16752,19 +16764,19 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16773,23 +16785,23 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
@@ -16798,23 +16810,21 @@
         <v>42</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>657</v>
+        <v>96</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>658</v>
+        <v>142</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>659</v>
+        <v>143</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>661</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16850,31 +16860,31 @@
         <v>42</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="AC132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>662</v>
+        <v>145</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16883,14 +16893,16 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>663</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="C133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16899,36 +16911,32 @@
         <v>40</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>667</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P133" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16948,13 +16956,13 @@
         <v>42</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>669</v>
+        <v>42</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>670</v>
+        <v>42</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>42</v>
@@ -16972,19 +16980,19 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>671</v>
+        <v>145</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>42</v>
@@ -16993,12 +17001,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>672</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17021,17 +17029,19 @@
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>52</v>
+        <v>663</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -17080,7 +17090,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17101,12 +17111,12 @@
         <v>42</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17117,34 +17127,36 @@
         <v>40</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="Q135" t="s" s="2">
         <v>42</v>
       </c>
@@ -17164,13 +17176,13 @@
         <v>42</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>42</v>
+        <v>675</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>42</v>
+        <v>676</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>42</v>
@@ -17188,7 +17200,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17197,7 +17209,7 @@
         <v>50</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>684</v>
+        <v>42</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>63</v>
@@ -17209,12 +17221,12 @@
         <v>42</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17237,19 +17249,17 @@
         <v>51</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>689</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17298,7 +17308,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17319,12 +17329,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17344,20 +17354,20 @@
         <v>42</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>694</v>
+        <v>66</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17406,7 +17416,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17415,7 +17425,7 @@
         <v>50</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>42</v>
+        <v>690</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>63</v>
@@ -17427,12 +17437,12 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>42</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17452,22 +17462,22 @@
         <v>42</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>657</v>
+        <v>72</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17516,7 +17526,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17537,12 +17547,12 @@
         <v>42</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>42</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17565,19 +17575,17 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17626,7 +17634,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -17652,7 +17660,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17663,7 +17671,7 @@
         <v>40</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>42</v>
@@ -17675,17 +17683,19 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M140" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="N140" t="s" s="2">
-        <v>499</v>
+        <v>708</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
@@ -17734,13 +17744,13 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>42</v>
@@ -17783,7 +17793,7 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>157</v>
+        <v>700</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>710</v>
@@ -17820,13 +17830,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>714</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>715</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -17870,7 +17880,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17893,17 +17903,17 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>717</v>
+        <v>503</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>718</v>
+        <v>504</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17928,13 +17938,13 @@
         <v>42</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>719</v>
+        <v>42</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>720</v>
+        <v>42</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
@@ -17952,7 +17962,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17978,7 +17988,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17989,7 +17999,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>42</v>
@@ -18001,19 +18011,19 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>722</v>
+        <v>157</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18038,13 +18048,13 @@
         <v>42</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>42</v>
+        <v>720</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>42</v>
+        <v>721</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
@@ -18062,13 +18072,13 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>42</v>
@@ -18077,7 +18087,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>727</v>
+        <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>42</v>
@@ -18088,7 +18098,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18111,17 +18121,17 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>568</v>
+        <v>723</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>570</v>
+        <v>719</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -18146,13 +18156,13 @@
         <v>42</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>42</v>
+        <v>725</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>42</v>
+        <v>726</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
@@ -18170,7 +18180,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -18196,7 +18206,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18207,7 +18217,7 @@
         <v>40</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>42</v>
@@ -18219,16 +18229,20 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>52</v>
+        <v>728</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>137</v>
+        <v>729</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>730</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>732</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
       </c>
@@ -18276,37 +18290,37 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>139</v>
+        <v>727</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>42</v>
+        <v>733</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18325,18 +18339,18 @@
         <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>142</v>
+        <v>574</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
       </c>
@@ -18384,7 +18398,7 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>145</v>
+        <v>734</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18396,7 +18410,7 @@
         <v>42</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
@@ -18405,48 +18419,44 @@
         <v>42</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>42</v>
       </c>
@@ -18494,19 +18504,19 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18515,23 +18525,23 @@
         <v>42</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>42</v>
@@ -18543,18 +18553,18 @@
         <v>42</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>42</v>
       </c>
@@ -18602,19 +18612,19 @@
         <v>42</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>733</v>
+        <v>145</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>42</v>
@@ -18623,45 +18633,47 @@
         <v>42</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>601</v>
+        <v>287</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N149" t="s" s="2">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>42</v>
@@ -18686,13 +18698,13 @@
         <v>42</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>42</v>
@@ -18710,19 +18722,19 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>734</v>
+        <v>289</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>42</v>
@@ -18731,12 +18743,12 @@
         <v>42</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18744,7 +18756,7 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>50</v>
@@ -18759,19 +18771,17 @@
         <v>42</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18796,13 +18806,13 @@
         <v>42</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
@@ -18820,10 +18830,10 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>50</v>
@@ -18846,15 +18856,15 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>50</v>
@@ -18872,16 +18882,14 @@
         <v>157</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -18909,10 +18917,10 @@
         <v>214</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>42</v>
@@ -18930,10 +18938,10 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>50</v>
@@ -18956,7 +18964,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18967,7 +18975,7 @@
         <v>40</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>42</v>
@@ -18982,16 +18990,16 @@
         <v>157</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>739</v>
+        <v>615</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19019,10 +19027,10 @@
         <v>214</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>42</v>
@@ -19040,13 +19048,13 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>42</v>
@@ -19066,18 +19074,18 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>42</v>
@@ -19092,16 +19100,16 @@
         <v>157</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19129,10 +19137,10 @@
         <v>214</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>42</v>
@@ -19150,13 +19158,13 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>42</v>
@@ -19176,7 +19184,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19187,7 +19195,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>42</v>
@@ -19199,17 +19207,19 @@
         <v>42</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>647</v>
+        <v>157</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>745</v>
+      </c>
       <c r="N154" t="s" s="2">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>42</v>
@@ -19234,13 +19244,13 @@
         <v>42</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>42</v>
+        <v>633</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>42</v>
@@ -19258,13 +19268,13 @@
         <v>42</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>42</v>
@@ -19284,7 +19294,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19295,7 +19305,7 @@
         <v>40</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>42</v>
@@ -19307,17 +19317,19 @@
         <v>42</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>694</v>
+        <v>157</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N155" t="s" s="2">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>42</v>
@@ -19342,13 +19354,13 @@
         <v>42</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>42</v>
+        <v>640</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>42</v>
@@ -19366,13 +19378,13 @@
         <v>42</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>42</v>
@@ -19392,7 +19404,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19415,19 +19427,17 @@
         <v>42</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>42</v>
@@ -19476,7 +19486,7 @@
         <v>42</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19502,7 +19512,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19525,19 +19535,17 @@
         <v>42</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>42</v>
@@ -19586,7 +19594,7 @@
         <v>42</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19612,7 +19620,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19623,7 +19631,7 @@
         <v>40</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>42</v>
@@ -19635,17 +19643,19 @@
         <v>42</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>499</v>
+        <v>708</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>42</v>
@@ -19694,13 +19704,13 @@
         <v>42</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>42</v>
@@ -19720,7 +19730,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19731,7 +19741,7 @@
         <v>40</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>42</v>
@@ -19743,17 +19753,19 @@
         <v>42</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>568</v>
+        <v>710</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="N159" t="s" s="2">
-        <v>570</v>
+        <v>713</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>42</v>
@@ -19802,13 +19814,13 @@
         <v>42</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>42</v>
@@ -19828,7 +19840,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19839,7 +19851,7 @@
         <v>40</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>42</v>
@@ -19851,16 +19863,18 @@
         <v>42</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>52</v>
+        <v>502</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>137</v>
+        <v>503</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>138</v>
+        <v>504</v>
       </c>
       <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
+      <c r="N160" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>42</v>
       </c>
@@ -19908,19 +19922,19 @@
         <v>42</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>139</v>
+        <v>751</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>42</v>
@@ -19929,16 +19943,16 @@
         <v>42</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19957,18 +19971,18 @@
         <v>42</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>142</v>
+        <v>574</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N161" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>42</v>
       </c>
@@ -20016,7 +20030,7 @@
         <v>42</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>145</v>
+        <v>752</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
@@ -20028,7 +20042,7 @@
         <v>42</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
@@ -20037,48 +20051,44 @@
         <v>42</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>42</v>
       </c>
@@ -20126,19 +20136,19 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
@@ -20147,23 +20157,23 @@
         <v>42</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>42</v>
@@ -20175,18 +20185,18 @@
         <v>42</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>42</v>
       </c>
@@ -20234,19 +20244,19 @@
         <v>42</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>750</v>
+        <v>145</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
@@ -20255,45 +20265,47 @@
         <v>42</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>601</v>
+        <v>287</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M164" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N164" t="s" s="2">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>42</v>
@@ -20318,13 +20330,13 @@
         <v>42</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>42</v>
@@ -20342,19 +20354,19 @@
         <v>42</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>751</v>
+        <v>289</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>42</v>
@@ -20363,12 +20375,12 @@
         <v>42</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20376,7 +20388,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>50</v>
@@ -20391,19 +20403,17 @@
         <v>42</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>42</v>
@@ -20428,13 +20438,13 @@
         <v>42</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>42</v>
@@ -20452,10 +20462,10 @@
         <v>42</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>50</v>
@@ -20478,7 +20488,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20486,7 +20496,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>50</v>
@@ -20504,16 +20514,14 @@
         <v>157</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20541,10 +20549,10 @@
         <v>214</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20562,10 +20570,10 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>50</v>
@@ -20588,7 +20596,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20599,7 +20607,7 @@
         <v>40</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>42</v>
@@ -20614,16 +20622,16 @@
         <v>157</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>739</v>
+        <v>615</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20651,10 +20659,10 @@
         <v>214</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20672,13 +20680,13 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>42</v>
@@ -20698,7 +20706,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20706,10 +20714,10 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>42</v>
@@ -20724,16 +20732,16 @@
         <v>157</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -20761,10 +20769,10 @@
         <v>214</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>42</v>
@@ -20782,13 +20790,13 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>42</v>
@@ -20808,7 +20816,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20819,7 +20827,7 @@
         <v>40</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>42</v>
@@ -20831,17 +20839,19 @@
         <v>42</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>647</v>
+        <v>157</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>745</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -20866,13 +20876,13 @@
         <v>42</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>42</v>
+        <v>633</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>42</v>
@@ -20890,13 +20900,13 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>42</v>
@@ -20916,7 +20926,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20927,7 +20937,7 @@
         <v>40</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>42</v>
@@ -20939,17 +20949,19 @@
         <v>42</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>694</v>
+        <v>157</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M170" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N170" t="s" s="2">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -20974,13 +20986,13 @@
         <v>42</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>42</v>
+        <v>640</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>42</v>
@@ -20998,13 +21010,13 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>42</v>
@@ -21024,7 +21036,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21047,19 +21059,17 @@
         <v>42</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21108,7 +21118,7 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
@@ -21134,7 +21144,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21157,19 +21167,17 @@
         <v>42</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>42</v>
@@ -21218,7 +21226,7 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
@@ -21244,7 +21252,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21255,7 +21263,7 @@
         <v>40</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>42</v>
@@ -21267,17 +21275,19 @@
         <v>42</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M173" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="N173" t="s" s="2">
-        <v>499</v>
+        <v>708</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>42</v>
@@ -21326,13 +21336,13 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>42</v>
@@ -21352,7 +21362,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21375,17 +21385,19 @@
         <v>42</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>762</v>
+        <v>710</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>764</v>
+        <v>713</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>42</v>
@@ -21434,7 +21446,7 @@
         <v>42</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21458,8 +21470,224 @@
         <v>42</v>
       </c>
     </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M176" s="2"/>
+      <c r="N176" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL174">
+  <autoFilter ref="A1:AL176">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21469,7 +21697,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI173">
+  <conditionalFormatting sqref="A2:AI175">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6734" uniqueCount="864">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1865,6 +1865,16 @@
   </si>
   <si>
     <t>Indicates whether the claim is a crossover claim where a portion is paid by Medicare</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/line-of-business}
+</t>
+  </si>
+  <si>
+    <t>Code for the line of business</t>
   </si>
   <si>
     <t>priorAuthorizationIndicator</t>
@@ -2982,7 +2992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL195"/>
+  <dimension ref="A1:AL196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15253,43 +15263,41 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>129</v>
+        <v>599</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>75</v>
       </c>
@@ -15337,7 +15345,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
@@ -15346,7 +15354,7 @@
         <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>135</v>
@@ -15363,40 +15371,42 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N115" t="s" s="2">
-        <v>602</v>
+        <v>213</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
@@ -15445,19 +15455,19 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>367</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
@@ -15466,12 +15476,12 @@
         <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15494,19 +15504,17 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -15555,7 +15563,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>83</v>
@@ -15581,7 +15589,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15589,7 +15597,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>83</v>
@@ -15601,22 +15609,22 @@
         <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15665,10 +15673,10 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -15680,10 +15688,10 @@
         <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15691,7 +15699,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15699,7 +15707,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -15711,20 +15719,22 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15773,10 +15783,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -15788,10 +15798,10 @@
         <v>96</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>75</v>
@@ -15799,7 +15809,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15807,7 +15817,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>83</v>
@@ -15819,20 +15829,20 @@
         <v>75</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>617</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -15881,10 +15891,10 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -15907,7 +15917,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15918,7 +15928,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>75</v>
@@ -15933,16 +15943,14 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" s="2"/>
+      <c r="N120" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -15991,13 +15999,13 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16017,7 +16025,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16028,7 +16036,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>75</v>
@@ -16040,19 +16048,19 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16101,13 +16109,13 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>75</v>
@@ -16127,7 +16135,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16150,17 +16158,19 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>356</v>
+        <v>631</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
@@ -16209,7 +16219,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16235,7 +16245,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16258,16 +16268,18 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>164</v>
+        <v>637</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>165</v>
+        <v>638</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
       </c>
@@ -16315,7 +16327,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>166</v>
+        <v>636</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16327,7 +16339,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -16336,23 +16348,23 @@
         <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>75</v>
@@ -16364,17 +16376,15 @@
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>75</v>
@@ -16423,19 +16433,19 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>75</v>
@@ -16449,11 +16459,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16466,26 +16476,24 @@
         <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N125" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16533,7 +16541,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>73</v>
@@ -16554,47 +16562,47 @@
         <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>641</v>
+        <v>129</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>642</v>
+        <v>365</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>644</v>
+        <v>212</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>645</v>
+        <v>213</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>75</v>
@@ -16643,19 +16651,19 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>640</v>
+        <v>367</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
@@ -16664,12 +16672,12 @@
         <v>75</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16677,7 +16685,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>83</v>
@@ -16692,17 +16700,19 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>178</v>
+        <v>644</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>75</v>
@@ -16727,13 +16737,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>651</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16751,10 +16761,10 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>83</v>
@@ -16777,7 +16787,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16800,17 +16810,17 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>653</v>
+        <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -16835,13 +16845,13 @@
         <v>75</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>75</v>
+        <v>653</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>75</v>
@@ -16859,7 +16869,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16885,7 +16895,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16896,7 +16906,7 @@
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -16908,17 +16918,17 @@
         <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>356</v>
+        <v>656</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -16967,13 +16977,13 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -16993,7 +17003,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17004,7 +17014,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>75</v>
@@ -17016,16 +17026,18 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>165</v>
+        <v>662</v>
       </c>
       <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>75</v>
       </c>
@@ -17073,19 +17085,19 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>166</v>
+        <v>660</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
@@ -17094,12 +17106,12 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17110,7 +17122,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17122,13 +17134,13 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17167,29 +17179,31 @@
         <v>75</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB131" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>75</v>
@@ -17198,16 +17212,14 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
         <v>75</v>
       </c>
@@ -17216,7 +17228,7 @@
         <v>73</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>75</v>
@@ -17228,13 +17240,13 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>664</v>
+        <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>665</v>
+        <v>130</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>665</v>
+        <v>131</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17273,16 +17285,14 @@
         <v>75</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB132" s="2"/>
       <c r="AC132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>170</v>
@@ -17294,7 +17304,7 @@
         <v>74</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>135</v>
@@ -17306,12 +17316,12 @@
         <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>666</v>
@@ -17419,7 +17429,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>669</v>
@@ -17527,7 +17537,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>672</v>
@@ -17635,43 +17645,41 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>129</v>
+        <v>676</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>365</v>
+        <v>677</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>75</v>
       </c>
@@ -17719,7 +17727,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>73</v>
@@ -17728,7 +17736,7 @@
         <v>74</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>135</v>
@@ -17745,40 +17753,42 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>677</v>
+        <v>365</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N137" t="s" s="2">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>75</v>
@@ -17827,19 +17837,19 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>676</v>
+        <v>367</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>75</v>
@@ -17848,12 +17858,12 @@
         <v>75</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17861,10 +17871,10 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>75</v>
@@ -17879,14 +17889,14 @@
         <v>436</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>75</v>
@@ -17935,13 +17945,13 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>75</v>
@@ -17961,7 +17971,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17987,14 +17997,14 @@
         <v>436</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -18043,7 +18053,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>73</v>
@@ -18069,7 +18079,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18095,14 +18105,14 @@
         <v>436</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>75</v>
@@ -18151,7 +18161,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>73</v>
@@ -18177,7 +18187,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18203,14 +18213,14 @@
         <v>436</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>75</v>
@@ -18259,7 +18269,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
@@ -18285,7 +18295,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18296,7 +18306,7 @@
         <v>73</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>75</v>
@@ -18308,17 +18318,17 @@
         <v>75</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>75</v>
@@ -18343,13 +18353,13 @@
         <v>75</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>75</v>
@@ -18367,13 +18377,13 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>75</v>
@@ -18393,7 +18403,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18419,16 +18429,14 @@
         <v>178</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>75</v>
@@ -18456,10 +18464,10 @@
         <v>343</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>75</v>
@@ -18477,7 +18485,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>73</v>
@@ -18503,15 +18511,15 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>710</v>
+        <v>75</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>83</v>
@@ -18529,16 +18537,16 @@
         <v>178</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>75</v>
@@ -18566,10 +18574,10 @@
         <v>343</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -18587,10 +18595,10 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>83</v>
@@ -18613,18 +18621,18 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>75</v>
+        <v>713</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>75</v>
@@ -18639,16 +18647,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -18676,10 +18684,10 @@
         <v>343</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>75</v>
@@ -18697,13 +18705,13 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>75</v>
@@ -18723,7 +18731,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18749,16 +18757,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>75</v>
@@ -18786,10 +18794,10 @@
         <v>343</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>75</v>
@@ -18807,7 +18815,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
@@ -18833,7 +18841,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18844,7 +18852,7 @@
         <v>73</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>75</v>
@@ -18856,17 +18864,19 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="M147" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="N147" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>75</v>
@@ -18891,13 +18901,13 @@
         <v>75</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>75</v>
+        <v>732</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>75</v>
+        <v>733</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>75</v>
@@ -18915,13 +18925,13 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>75</v>
@@ -18933,7 +18943,7 @@
         <v>75</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>75</v>
@@ -18941,7 +18951,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18964,17 +18974,17 @@
         <v>75</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -18999,13 +19009,13 @@
         <v>75</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>740</v>
+        <v>75</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>741</v>
+        <v>75</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>75</v>
@@ -19023,7 +19033,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -19041,7 +19051,7 @@
         <v>75</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>75</v>
@@ -19049,7 +19059,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19072,17 +19082,17 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>75</v>
@@ -19107,13 +19117,13 @@
         <v>75</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>75</v>
+        <v>743</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>75</v>
+        <v>744</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>75</v>
@@ -19131,7 +19141,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
@@ -19149,7 +19159,7 @@
         <v>75</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>75</v>
@@ -19157,7 +19167,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19180,16 +19190,18 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>85</v>
+        <v>746</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>164</v>
+        <v>747</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>165</v>
+        <v>748</v>
       </c>
       <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="N150" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>75</v>
       </c>
@@ -19237,7 +19249,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>166</v>
+        <v>745</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
@@ -19249,7 +19261,7 @@
         <v>75</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>75</v>
@@ -19258,23 +19270,23 @@
         <v>75</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>75</v>
@@ -19286,17 +19298,15 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>75</v>
@@ -19333,31 +19343,31 @@
         <v>75</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>75</v>
@@ -19371,20 +19381,18 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>75</v>
@@ -19396,15 +19404,17 @@
         <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>750</v>
+        <v>129</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>751</v>
+        <v>225</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M152" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>75</v>
@@ -19441,16 +19451,16 @@
         <v>75</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE152" t="s" s="2">
         <v>170</v>
@@ -19474,14 +19484,16 @@
         <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="B153" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
         <v>75</v>
       </c>
@@ -19499,7 +19511,7 @@
         <v>75</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
         <v>753</v>
@@ -19508,14 +19520,10 @@
         <v>754</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>757</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>75</v>
       </c>
@@ -19563,19 +19571,19 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>758</v>
+        <v>170</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>75</v>
@@ -19584,12 +19592,12 @@
         <v>75</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>759</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19600,80 +19608,80 @@
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>105</v>
+        <v>756</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE154" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="Q154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>73</v>
@@ -19694,12 +19702,12 @@
         <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19710,34 +19718,36 @@
         <v>73</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>75</v>
       </c>
@@ -19757,13 +19767,13 @@
         <v>75</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>75</v>
+        <v>768</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>75</v>
+        <v>769</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>75</v>
@@ -19781,7 +19791,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>73</v>
@@ -19802,12 +19812,12 @@
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19830,17 +19840,17 @@
         <v>84</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>75</v>
@@ -19889,7 +19899,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>73</v>
@@ -19898,7 +19908,7 @@
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>780</v>
+        <v>75</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>96</v>
@@ -19910,12 +19920,12 @@
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19938,19 +19948,17 @@
         <v>84</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>75</v>
@@ -19999,7 +20007,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>73</v>
@@ -20008,7 +20016,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>75</v>
+        <v>783</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>96</v>
@@ -20020,12 +20028,12 @@
         <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20045,20 +20053,22 @@
         <v>75</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>790</v>
+        <v>105</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>788</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>75</v>
@@ -20107,7 +20117,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>73</v>
@@ -20128,12 +20138,12 @@
         <v>75</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>75</v>
+        <v>791</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20156,19 +20166,17 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" s="2"/>
+      <c r="N159" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>75</v>
@@ -20217,7 +20225,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>73</v>
@@ -20243,7 +20251,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20266,19 +20274,19 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>75</v>
@@ -20327,7 +20335,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>73</v>
@@ -20353,7 +20361,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20364,7 +20372,7 @@
         <v>73</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>75</v>
@@ -20376,17 +20384,19 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>580</v>
+        <v>793</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M161" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="N161" t="s" s="2">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -20435,13 +20445,13 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>75</v>
@@ -20461,7 +20471,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20472,7 +20482,7 @@
         <v>73</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>75</v>
@@ -20484,19 +20494,17 @@
         <v>75</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>178</v>
+        <v>580</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>806</v>
+        <v>581</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>808</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>809</v>
+        <v>583</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>75</v>
@@ -20521,13 +20529,13 @@
         <v>75</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>810</v>
+        <v>75</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>811</v>
+        <v>75</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -20545,13 +20553,13 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>75</v>
@@ -20571,7 +20579,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20582,7 +20590,7 @@
         <v>73</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>75</v>
@@ -20597,14 +20605,16 @@
         <v>178</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>75</v>
@@ -20632,10 +20642,10 @@
         <v>343</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>75</v>
@@ -20653,13 +20663,13 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>75</v>
@@ -20679,7 +20689,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20702,19 +20712,17 @@
         <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>818</v>
+        <v>178</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>821</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>75</v>
@@ -20739,13 +20747,13 @@
         <v>75</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>75</v>
+        <v>818</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>75</v>
+        <v>819</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>75</v>
@@ -20763,7 +20771,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>73</v>
@@ -20778,7 +20786,7 @@
         <v>96</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>823</v>
+        <v>75</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>75</v>
@@ -20789,7 +20797,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20812,17 +20820,19 @@
         <v>75</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>356</v>
+        <v>821</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>658</v>
+        <v>822</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>75</v>
@@ -20871,7 +20881,7 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>73</v>
@@ -20886,7 +20896,7 @@
         <v>96</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>75</v>
+        <v>826</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>75</v>
@@ -20897,7 +20907,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20908,7 +20918,7 @@
         <v>73</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>75</v>
@@ -20920,16 +20930,18 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>165</v>
+        <v>828</v>
       </c>
       <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
+      <c r="N166" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O166" t="s" s="2">
         <v>75</v>
       </c>
@@ -20977,19 +20989,19 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>166</v>
+        <v>827</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>75</v>
@@ -20998,23 +21010,23 @@
         <v>75</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>75</v>
@@ -21026,17 +21038,15 @@
         <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>75</v>
@@ -21085,19 +21095,19 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>75</v>
@@ -21111,11 +21121,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21128,26 +21138,24 @@
         <v>75</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N168" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>75</v>
       </c>
@@ -21195,7 +21203,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>73</v>
@@ -21216,45 +21224,47 @@
         <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>677</v>
+        <v>365</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>75</v>
@@ -21303,19 +21313,19 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>829</v>
+        <v>367</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>75</v>
@@ -21324,12 +21334,12 @@
         <v>75</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21337,7 +21347,7 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>83</v>
@@ -21352,17 +21362,17 @@
         <v>75</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>75</v>
@@ -21387,13 +21397,13 @@
         <v>75</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>75</v>
@@ -21411,10 +21421,10 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>83</v>
@@ -21437,7 +21447,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21463,16 +21473,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -21500,10 +21508,10 @@
         <v>343</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>75</v>
@@ -21521,7 +21529,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>73</v>
@@ -21547,15 +21555,15 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>710</v>
+        <v>75</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>83</v>
@@ -21573,16 +21581,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -21610,10 +21618,10 @@
         <v>343</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>75</v>
@@ -21631,10 +21639,10 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>83</v>
@@ -21657,18 +21665,18 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>75</v>
+        <v>713</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>75</v>
@@ -21683,16 +21691,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>834</v>
+        <v>714</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>835</v>
+        <v>716</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -21720,10 +21728,10 @@
         <v>343</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>75</v>
@@ -21741,13 +21749,13 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>75</v>
@@ -21793,16 +21801,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>725</v>
+        <v>837</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>727</v>
+        <v>838</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -21830,10 +21838,10 @@
         <v>343</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>75</v>
@@ -21877,7 +21885,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21888,7 +21896,7 @@
         <v>73</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>75</v>
@@ -21900,17 +21908,19 @@
         <v>75</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>743</v>
+        <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M175" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="N175" t="s" s="2">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -21935,13 +21945,13 @@
         <v>75</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>75</v>
+        <v>732</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>75</v>
+        <v>733</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>75</v>
@@ -21959,13 +21969,13 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>75</v>
@@ -21985,7 +21995,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22008,17 +22018,17 @@
         <v>75</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>75</v>
@@ -22067,7 +22077,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>73</v>
@@ -22093,7 +22103,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22116,19 +22126,17 @@
         <v>75</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -22177,7 +22185,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>73</v>
@@ -22203,7 +22211,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22226,19 +22234,19 @@
         <v>75</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>75</v>
@@ -22287,7 +22295,7 @@
         <v>75</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>73</v>
@@ -22313,7 +22321,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22324,7 +22332,7 @@
         <v>73</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>75</v>
@@ -22336,17 +22344,19 @@
         <v>75</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>580</v>
+        <v>793</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M179" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="N179" t="s" s="2">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>75</v>
@@ -22395,13 +22405,13 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>75</v>
@@ -22421,7 +22431,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22444,17 +22454,17 @@
         <v>75</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>356</v>
+        <v>580</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>658</v>
+        <v>581</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>660</v>
+        <v>583</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>75</v>
@@ -22503,7 +22513,7 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>73</v>
@@ -22529,7 +22539,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22540,7 +22550,7 @@
         <v>73</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>75</v>
@@ -22552,16 +22562,18 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>165</v>
+        <v>828</v>
       </c>
       <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
+      <c r="N181" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O181" t="s" s="2">
         <v>75</v>
       </c>
@@ -22609,19 +22621,19 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>166</v>
+        <v>845</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>75</v>
@@ -22630,23 +22642,23 @@
         <v>75</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>75</v>
@@ -22658,17 +22670,15 @@
         <v>75</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>75</v>
@@ -22717,19 +22727,19 @@
         <v>75</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>75</v>
@@ -22743,11 +22753,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22760,26 +22770,24 @@
         <v>75</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J183" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N183" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>75</v>
       </c>
@@ -22827,7 +22835,7 @@
         <v>75</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>73</v>
@@ -22848,45 +22856,47 @@
         <v>75</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>677</v>
+        <v>365</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M184" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N184" t="s" s="2">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>75</v>
@@ -22935,19 +22945,19 @@
         <v>75</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>846</v>
+        <v>367</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>75</v>
@@ -22956,12 +22966,12 @@
         <v>75</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22969,7 +22979,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>83</v>
@@ -22984,17 +22994,17 @@
         <v>75</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>75</v>
@@ -23019,13 +23029,13 @@
         <v>75</v>
       </c>
       <c r="W185" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>75</v>
@@ -23043,10 +23053,10 @@
         <v>75</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>83</v>
@@ -23069,7 +23079,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23095,16 +23105,14 @@
         <v>178</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>75</v>
@@ -23132,10 +23140,10 @@
         <v>343</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>75</v>
@@ -23153,7 +23161,7 @@
         <v>75</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>73</v>
@@ -23179,7 +23187,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23187,7 +23195,7 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F187" t="s" s="2">
         <v>83</v>
@@ -23205,16 +23213,16 @@
         <v>178</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>75</v>
@@ -23242,10 +23250,10 @@
         <v>343</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>75</v>
@@ -23263,10 +23271,10 @@
         <v>75</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>83</v>
@@ -23289,7 +23297,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23297,10 +23305,10 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>75</v>
@@ -23315,16 +23323,16 @@
         <v>178</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>834</v>
+        <v>714</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>835</v>
+        <v>716</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>75</v>
@@ -23352,10 +23360,10 @@
         <v>343</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>75</v>
@@ -23373,13 +23381,13 @@
         <v>75</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>75</v>
@@ -23399,7 +23407,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23425,16 +23433,16 @@
         <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>725</v>
+        <v>837</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>727</v>
+        <v>838</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>75</v>
@@ -23462,10 +23470,10 @@
         <v>343</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>75</v>
@@ -23483,7 +23491,7 @@
         <v>75</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>73</v>
@@ -23509,7 +23517,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23520,7 +23528,7 @@
         <v>73</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>75</v>
@@ -23532,17 +23540,19 @@
         <v>75</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>743</v>
+        <v>178</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M190" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="N190" t="s" s="2">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>75</v>
@@ -23567,13 +23577,13 @@
         <v>75</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>75</v>
+        <v>732</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>75</v>
+        <v>733</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>75</v>
@@ -23591,13 +23601,13 @@
         <v>75</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>75</v>
@@ -23617,7 +23627,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23640,17 +23650,17 @@
         <v>75</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>75</v>
@@ -23699,7 +23709,7 @@
         <v>75</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>73</v>
@@ -23725,7 +23735,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23748,19 +23758,17 @@
         <v>75</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" s="2"/>
+      <c r="N192" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>75</v>
@@ -23809,7 +23817,7 @@
         <v>75</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>73</v>
@@ -23835,7 +23843,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23858,19 +23866,19 @@
         <v>75</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>75</v>
@@ -23919,7 +23927,7 @@
         <v>75</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>73</v>
@@ -23945,7 +23953,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23956,7 +23964,7 @@
         <v>73</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>75</v>
@@ -23968,17 +23976,19 @@
         <v>75</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>580</v>
+        <v>793</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M194" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="N194" t="s" s="2">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>75</v>
@@ -24027,13 +24037,13 @@
         <v>75</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>75</v>
@@ -24053,7 +24063,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24064,7 +24074,7 @@
         <v>73</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>75</v>
@@ -24076,17 +24086,17 @@
         <v>75</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>790</v>
+        <v>580</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>858</v>
+        <v>581</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>859</v>
+        <v>582</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>860</v>
+        <v>583</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>75</v>
@@ -24135,13 +24145,13 @@
         <v>75</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>75</v>
@@ -24156,6 +24166,114 @@
         <v>75</v>
       </c>
       <c r="AL195" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL196" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2997,37 +2997,37 @@
     <col min="1" max="1" width="43.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="48.375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.54296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.63671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-facility.xlsx
+++ b/StructureDefinition-cdm-claim-facility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6733" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6733" uniqueCount="865">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,263 +275,267 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Claim.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Claim.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Claim.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Claim.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Claim.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Claim.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>aggregateClaimIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aggregate-claim-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicates whether this claim record is included in the adjustment processing of the aggregate build logic for admissions, episodes or DCGs</t>
+  </si>
+  <si>
+    <t>claimSnapshotProviderName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-name}
+</t>
+  </si>
+  <si>
+    <t>Original provider name as reported on the claim</t>
+  </si>
+  <si>
+    <t>claimSnapshotProviderZipCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-zip-code}
+</t>
+  </si>
+  <si>
+    <t>Original provider postal code, as reported on the claim</t>
+  </si>
+  <si>
+    <t>companyCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/company-code}
+</t>
+  </si>
+  <si>
+    <t>Company code of the subscriber as reported on the claim</t>
+  </si>
+  <si>
+    <t>employeeBusinessUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
+</t>
+  </si>
+  <si>
+    <t>Business unit of the subscriber as reported on the claim</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employer}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the employer as reported on the claim record</t>
+  </si>
+  <si>
+    <t>financialSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/financial-system}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the financial system</t>
+  </si>
+  <si>
+    <t>claimCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-category}
+</t>
+  </si>
+  <si>
+    <t>Standard HIPAA code for the category of the claim status</t>
+  </si>
+  <si>
+    <t>claimStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
+</t>
+  </si>
+  <si>
+    <t>Standard HIPAA code for the status of an entire claim</t>
+  </si>
+  <si>
+    <t>Claim.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Claim.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Claim.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Claim.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Claim.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Claim.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Claim.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>aggregateClaimIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aggregate-claim-indicator}
-</t>
-  </si>
-  <si>
-    <t>Indicates whether this claim record is included in the adjustment processing of the aggregate build logic for admissions, episodes or DCGs</t>
-  </si>
-  <si>
-    <t>claimSnapshotProviderName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-name}
-</t>
-  </si>
-  <si>
-    <t>Original provider name as reported on the claim</t>
-  </si>
-  <si>
-    <t>claimSnapshotProviderZipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-zip-code}
-</t>
-  </si>
-  <si>
-    <t>Original provider postal code, as reported on the claim</t>
-  </si>
-  <si>
-    <t>companyCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/company-code}
-</t>
-  </si>
-  <si>
-    <t>Company code of the subscriber as reported on the claim</t>
-  </si>
-  <si>
-    <t>employeeBusinessUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
-</t>
-  </si>
-  <si>
-    <t>Business unit of the subscriber as reported on the claim</t>
-  </si>
-  <si>
-    <t>employer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employer}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the employer as reported on the claim record</t>
-  </si>
-  <si>
-    <t>financialSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/financial-system}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the financial system</t>
-  </si>
-  <si>
-    <t>claimCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-category}
-</t>
-  </si>
-  <si>
-    <t>Standard HIPAA code for the category of the claim status</t>
-  </si>
-  <si>
-    <t>claimStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
-</t>
-  </si>
-  <si>
-    <t>Standard HIPAA code for the status of an entire claim</t>
-  </si>
-  <si>
-    <t>Claim.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5005,13 +5009,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5062,7 +5066,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -5083,12 +5087,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -5159,7 +5163,7 @@
         <v>133</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
@@ -5168,7 +5172,7 @@
         <v>134</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -5194,7 +5198,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -5220,13 +5224,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -5234,7 +5238,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>76</v>
@@ -5276,7 +5280,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>84</v>
@@ -5302,7 +5306,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5325,13 +5329,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5370,17 +5374,17 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -5406,10 +5410,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -5431,13 +5435,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5464,11 +5468,11 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -5486,7 +5490,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -5515,7 +5519,7 @@
         <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
@@ -5537,13 +5541,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5623,7 +5627,7 @@
         <v>129</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>76</v>
@@ -5645,13 +5649,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5731,7 +5735,7 @@
         <v>129</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>76</v>
@@ -5753,13 +5757,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5839,7 +5843,7 @@
         <v>129</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -5861,13 +5865,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5947,7 +5951,7 @@
         <v>129</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>76</v>
@@ -5969,13 +5973,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -6055,7 +6059,7 @@
         <v>129</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
@@ -6077,13 +6081,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -6163,7 +6167,7 @@
         <v>129</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>76</v>
@@ -6185,13 +6189,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -6268,11 +6272,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -6294,16 +6298,16 @@
         <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -6352,7 +6356,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -6378,11 +6382,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -6401,17 +6405,17 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -6460,7 +6464,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -6475,10 +6479,10 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -6486,7 +6490,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6509,13 +6513,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6566,7 +6570,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -6587,16 +6591,16 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6618,13 +6622,13 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6665,7 +6669,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -6674,7 +6678,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -6695,12 +6699,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6726,16 +6730,16 @@
         <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6760,13 +6764,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -6784,7 +6788,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -6805,12 +6809,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6833,19 +6837,19 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6870,11 +6874,11 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -6892,7 +6896,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -6913,12 +6917,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6944,16 +6948,16 @@
         <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6966,7 +6970,7 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -7002,7 +7006,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -7023,12 +7027,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7051,16 +7055,16 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -7074,7 +7078,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -7110,7 +7114,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -7131,12 +7135,12 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -7159,13 +7163,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -7237,12 +7241,12 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7265,16 +7269,16 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7324,7 +7328,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -7345,12 +7349,12 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7376,16 +7380,16 @@
         <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -7410,13 +7414,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -7434,7 +7438,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>84</v>
@@ -7449,10 +7453,10 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -7460,7 +7464,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7483,19 +7487,19 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -7520,11 +7524,11 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -7542,7 +7546,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>84</v>
@@ -7560,7 +7564,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -7568,7 +7572,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7591,19 +7595,19 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -7628,11 +7632,11 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -7650,7 +7654,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -7668,7 +7672,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -7676,7 +7680,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7702,14 +7706,14 @@
         <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -7734,13 +7738,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -7758,7 +7762,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -7776,7 +7780,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7784,7 +7788,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7807,17 +7811,17 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7866,7 +7870,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>84</v>
@@ -7881,10 +7885,10 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7892,7 +7896,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7915,19 +7919,19 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -7976,7 +7980,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7994,7 +7998,7 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -8002,7 +8006,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8025,19 +8029,19 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -8086,7 +8090,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>84</v>
@@ -8101,10 +8105,10 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -8112,7 +8116,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8135,17 +8139,17 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -8194,7 +8198,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -8212,7 +8216,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -8220,7 +8224,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8243,13 +8247,13 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8300,7 +8304,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -8315,7 +8319,7 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -8326,7 +8330,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8349,16 +8353,16 @@
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8408,7 +8412,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>84</v>
@@ -8423,10 +8427,10 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -8434,7 +8438,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8457,19 +8461,19 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -8494,13 +8498,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -8518,7 +8522,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>84</v>
@@ -8533,7 +8537,7 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -8544,11 +8548,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8567,19 +8571,19 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -8604,13 +8608,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -8628,7 +8632,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -8654,7 +8658,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8677,19 +8681,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -8738,7 +8742,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -8764,7 +8768,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8787,13 +8791,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8844,7 +8848,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -8865,16 +8869,16 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8896,13 +8900,13 @@
         <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8952,7 +8956,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -8973,16 +8977,16 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -9004,16 +9008,16 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -9062,7 +9066,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -9088,7 +9092,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9111,17 +9115,17 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -9170,7 +9174,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -9185,7 +9189,7 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -9196,7 +9200,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9219,19 +9223,19 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -9256,13 +9260,13 @@
         <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -9280,7 +9284,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -9306,7 +9310,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9329,19 +9333,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -9390,7 +9394,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -9416,7 +9420,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9439,17 +9443,17 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -9498,7 +9502,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -9524,7 +9528,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9547,19 +9551,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -9608,7 +9612,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -9634,7 +9638,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9657,19 +9661,19 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -9718,7 +9722,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -9744,7 +9748,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9767,13 +9771,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9824,7 +9828,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -9845,16 +9849,16 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9876,13 +9880,13 @@
         <v>130</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9932,7 +9936,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9953,16 +9957,16 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9984,16 +9988,16 @@
         <v>130</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -10042,7 +10046,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -10068,7 +10072,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10091,17 +10095,17 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -10126,13 +10130,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -10150,7 +10154,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -10176,7 +10180,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10199,19 +10203,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -10260,7 +10264,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -10286,7 +10290,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10309,19 +10313,19 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -10370,7 +10374,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -10388,7 +10392,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -10396,7 +10400,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10419,17 +10423,17 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -10478,7 +10482,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -10496,7 +10500,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -10504,7 +10508,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10527,17 +10531,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -10586,7 +10590,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -10612,7 +10616,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10635,13 +10639,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10692,7 +10696,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10713,16 +10717,16 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10744,13 +10748,13 @@
         <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10800,7 +10804,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10821,16 +10825,16 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10852,16 +10856,16 @@
         <v>130</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10910,7 +10914,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10936,7 +10940,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10959,17 +10963,17 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -11018,7 +11022,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>84</v>
@@ -11044,7 +11048,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11067,17 +11071,17 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -11126,7 +11130,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>84</v>
@@ -11144,7 +11148,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -11152,7 +11156,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11175,19 +11179,19 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -11236,7 +11240,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -11262,7 +11266,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11285,19 +11289,19 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -11322,11 +11326,11 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -11344,7 +11348,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -11370,7 +11374,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11393,17 +11397,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -11428,13 +11432,13 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>76</v>
@@ -11452,7 +11456,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -11478,11 +11482,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11501,19 +11505,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -11562,7 +11566,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -11577,7 +11581,7 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -11588,7 +11592,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11611,13 +11615,13 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11668,7 +11672,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11689,16 +11693,16 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11720,13 +11724,13 @@
         <v>130</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11776,7 +11780,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11797,16 +11801,16 @@
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11828,16 +11832,16 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11886,7 +11890,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -11912,7 +11916,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11935,17 +11939,17 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11994,7 +11998,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>84</v>
@@ -12020,7 +12024,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12043,19 +12047,19 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -12080,11 +12084,11 @@
         <v>76</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -12102,7 +12106,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>84</v>
@@ -12128,7 +12132,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12151,17 +12155,17 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -12186,11 +12190,11 @@
         <v>76</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>76</v>
@@ -12208,7 +12212,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -12234,7 +12238,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12257,13 +12261,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12314,7 +12318,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -12340,7 +12344,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12363,19 +12367,19 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>76</v>
@@ -12424,7 +12428,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -12450,7 +12454,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12473,19 +12477,19 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12510,13 +12514,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -12534,7 +12538,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -12560,7 +12564,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12583,17 +12587,17 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12642,7 +12646,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -12657,7 +12661,7 @@
         <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>76</v>
@@ -12668,7 +12672,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12691,13 +12695,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12748,7 +12752,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -12769,12 +12773,12 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12852,7 +12856,7 @@
         <v>134</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -12878,10 +12882,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>76</v>
@@ -12903,13 +12907,13 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12960,7 +12964,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -12986,11 +12990,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13012,16 +13016,16 @@
         <v>130</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>76</v>
@@ -13070,7 +13074,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -13096,7 +13100,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13119,19 +13123,19 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13180,7 +13184,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>84</v>
@@ -13206,7 +13210,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13229,17 +13233,17 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>76</v>
@@ -13264,13 +13268,13 @@
         <v>76</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>76</v>
@@ -13288,7 +13292,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>84</v>
@@ -13314,7 +13318,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13337,19 +13341,19 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -13374,13 +13378,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13398,7 +13402,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -13424,7 +13428,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13447,17 +13451,17 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -13482,13 +13486,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -13506,7 +13510,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -13532,7 +13536,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13555,19 +13559,19 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>76</v>
@@ -13592,13 +13596,13 @@
         <v>76</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -13616,7 +13620,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -13642,7 +13646,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13665,17 +13669,17 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>76</v>
@@ -13724,7 +13728,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13750,7 +13754,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13773,13 +13777,13 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13830,7 +13834,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -13851,12 +13855,12 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13934,7 +13938,7 @@
         <v>134</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13960,10 +13964,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -13985,13 +13989,13 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14042,7 +14046,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -14068,11 +14072,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14094,16 +14098,16 @@
         <v>130</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -14152,7 +14156,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -14178,7 +14182,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14201,17 +14205,17 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -14260,7 +14264,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>84</v>
@@ -14286,7 +14290,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14309,19 +14313,19 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
@@ -14346,13 +14350,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14370,7 +14374,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -14396,7 +14400,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14419,17 +14423,17 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14478,7 +14482,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -14504,7 +14508,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14527,17 +14531,17 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14562,13 +14566,13 @@
         <v>76</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14586,7 +14590,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>84</v>
@@ -14612,7 +14616,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14635,17 +14639,17 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14694,7 +14698,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -14720,7 +14724,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14743,19 +14747,19 @@
         <v>85</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14804,7 +14808,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>84</v>
@@ -14825,12 +14829,12 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14853,13 +14857,13 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14910,7 +14914,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -14931,12 +14935,12 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15014,7 +15018,7 @@
         <v>134</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -15040,10 +15044,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>76</v>
@@ -15065,13 +15069,13 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15122,7 +15126,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -15148,10 +15152,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>76</v>
@@ -15173,13 +15177,13 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15230,7 +15234,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -15256,10 +15260,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>76</v>
@@ -15281,13 +15285,13 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15338,7 +15342,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -15364,11 +15368,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15390,16 +15394,16 @@
         <v>130</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15448,7 +15452,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -15474,7 +15478,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15497,17 +15501,17 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15556,7 +15560,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>84</v>
@@ -15582,7 +15586,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15605,19 +15609,19 @@
         <v>85</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15666,7 +15670,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>84</v>
@@ -15692,7 +15696,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15715,19 +15719,19 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15776,7 +15780,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -15791,10 +15795,10 @@
         <v>97</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>76</v>
@@ -15802,7 +15806,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15825,17 +15829,17 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15884,7 +15888,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>84</v>
@@ -15910,7 +15914,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15933,17 +15937,17 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -15992,7 +15996,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -16018,7 +16022,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16041,19 +16045,19 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -16102,7 +16106,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -16128,7 +16132,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16151,19 +16155,19 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
@@ -16212,7 +16216,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -16238,7 +16242,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16261,17 +16265,17 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16320,7 +16324,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -16346,7 +16350,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16369,13 +16373,13 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16426,7 +16430,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -16447,16 +16451,16 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16478,13 +16482,13 @@
         <v>130</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16534,7 +16538,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -16555,16 +16559,16 @@
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16586,16 +16590,16 @@
         <v>130</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16644,7 +16648,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -16670,7 +16674,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16693,19 +16697,19 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16754,7 +16758,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>84</v>
@@ -16780,7 +16784,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16803,17 +16807,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16838,13 +16842,13 @@
         <v>76</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>76</v>
@@ -16862,7 +16866,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -16888,7 +16892,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16911,17 +16915,17 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16970,7 +16974,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -16996,7 +17000,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17019,17 +17023,17 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -17078,7 +17082,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -17104,7 +17108,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17127,13 +17131,13 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17184,7 +17188,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -17205,12 +17209,12 @@
         <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17288,7 +17292,7 @@
         <v>134</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -17314,10 +17318,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>76</v>
@@ -17339,13 +17343,13 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17396,7 +17400,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -17422,10 +17426,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>76</v>
@@ -17447,13 +17451,13 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17504,7 +17508,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -17530,10 +17534,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>76</v>
@@ -17555,13 +17559,13 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17612,7 +17616,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -17638,10 +17642,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>76</v>
@@ -17663,13 +17667,13 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -17720,7 +17724,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -17746,11 +17750,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17772,16 +17776,16 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17830,7 +17834,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -17856,7 +17860,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17879,17 +17883,17 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
@@ -17938,7 +17942,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>84</v>
@@ -17964,7 +17968,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17987,17 +17991,17 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
@@ -18046,7 +18050,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -18072,7 +18076,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18095,17 +18099,17 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18154,7 +18158,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -18180,7 +18184,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18203,17 +18207,17 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -18262,7 +18266,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -18288,7 +18292,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18311,17 +18315,17 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
@@ -18370,7 +18374,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -18396,7 +18400,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18419,17 +18423,17 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
@@ -18454,13 +18458,13 @@
         <v>76</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>76</v>
@@ -18478,7 +18482,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -18504,7 +18508,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18527,19 +18531,19 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -18564,13 +18568,13 @@
         <v>76</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -18588,7 +18592,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -18614,11 +18618,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18637,19 +18641,19 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -18674,13 +18678,13 @@
         <v>76</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>76</v>
@@ -18698,7 +18702,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>84</v>
@@ -18724,7 +18728,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18747,19 +18751,19 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>76</v>
@@ -18784,13 +18788,13 @@
         <v>76</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>76</v>
@@ -18808,7 +18812,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -18834,7 +18838,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18857,19 +18861,19 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18894,13 +18898,13 @@
         <v>76</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>76</v>
@@ -18918,7 +18922,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -18944,7 +18948,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18967,17 +18971,17 @@
         <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -19026,7 +19030,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -19044,7 +19048,7 @@
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>76</v>
@@ -19052,7 +19056,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19075,17 +19079,17 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
@@ -19110,13 +19114,13 @@
         <v>76</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>76</v>
@@ -19134,7 +19138,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -19152,7 +19156,7 @@
         <v>76</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>76</v>
@@ -19160,7 +19164,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19183,17 +19187,17 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>76</v>
@@ -19242,7 +19246,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -19268,7 +19272,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19291,13 +19295,13 @@
         <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19348,7 +19352,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
@@ -19369,16 +19373,16 @@
         <v>76</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19400,13 +19404,13 @@
         <v>130</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19447,7 +19451,7 @@
         <v>133</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>76</v>
@@ -19456,7 +19460,7 @@
         <v>134</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -19477,15 +19481,15 @@
         <v>76</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>76</v>
@@ -19507,13 +19511,13 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -19564,7 +19568,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -19590,7 +19594,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19613,19 +19617,19 @@
         <v>85</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -19674,7 +19678,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -19695,12 +19699,12 @@
         <v>76</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19726,20 +19730,20 @@
         <v>106</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>76</v>
@@ -19760,13 +19764,13 @@
         <v>76</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19784,7 +19788,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -19805,12 +19809,12 @@
         <v>76</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19833,17 +19837,17 @@
         <v>85</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19892,7 +19896,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19913,12 +19917,12 @@
         <v>76</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19944,14 +19948,14 @@
         <v>100</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>76</v>
@@ -20000,7 +20004,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -20009,7 +20013,7 @@
         <v>84</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>97</v>
@@ -20021,12 +20025,12 @@
         <v>76</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20052,16 +20056,16 @@
         <v>106</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>76</v>
@@ -20110,7 +20114,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -20131,12 +20135,12 @@
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20159,17 +20163,17 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>76</v>
@@ -20218,7 +20222,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -20244,7 +20248,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20267,19 +20271,19 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>76</v>
@@ -20328,7 +20332,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
@@ -20354,7 +20358,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20377,19 +20381,19 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -20438,7 +20442,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
@@ -20464,7 +20468,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20487,17 +20491,17 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>76</v>
@@ -20546,7 +20550,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -20572,7 +20576,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20595,19 +20599,19 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20632,13 +20636,13 @@
         <v>76</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>76</v>
@@ -20656,7 +20660,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -20682,7 +20686,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20705,17 +20709,17 @@
         <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>76</v>
@@ -20740,13 +20744,13 @@
         <v>76</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>76</v>
@@ -20764,7 +20768,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
@@ -20790,7 +20794,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20813,19 +20817,19 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20874,7 +20878,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -20889,7 +20893,7 @@
         <v>97</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>76</v>
@@ -20900,7 +20904,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20923,17 +20927,17 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -20982,7 +20986,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -21008,7 +21012,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21031,13 +21035,13 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21088,7 +21092,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -21109,16 +21113,16 @@
         <v>76</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21140,13 +21144,13 @@
         <v>130</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21196,7 +21200,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -21217,16 +21221,16 @@
         <v>76</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21248,16 +21252,16 @@
         <v>130</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>76</v>
@@ -21306,7 +21310,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
@@ -21332,7 +21336,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21355,17 +21359,17 @@
         <v>76</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>76</v>
@@ -21414,7 +21418,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>84</v>
@@ -21440,7 +21444,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21463,17 +21467,17 @@
         <v>76</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>76</v>
@@ -21498,13 +21502,13 @@
         <v>76</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21522,7 +21526,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -21548,7 +21552,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21571,19 +21575,19 @@
         <v>76</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21608,13 +21612,13 @@
         <v>76</v>
       </c>
       <c r="W172" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>76</v>
@@ -21632,7 +21636,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -21658,11 +21662,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21681,19 +21685,19 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>76</v>
@@ -21718,13 +21722,13 @@
         <v>76</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>76</v>
@@ -21742,7 +21746,7 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>84</v>
@@ -21768,7 +21772,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21791,19 +21795,19 @@
         <v>76</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>76</v>
@@ -21828,13 +21832,13 @@
         <v>76</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -21852,7 +21856,7 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
@@ -21878,7 +21882,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21901,19 +21905,19 @@
         <v>76</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>76</v>
@@ -21938,13 +21942,13 @@
         <v>76</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>76</v>
@@ -21962,7 +21966,7 @@
         <v>76</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
@@ -21988,7 +21992,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22011,17 +22015,17 @@
         <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>76</v>
@@ -22070,7 +22074,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -22096,7 +22100,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22119,17 +22123,17 @@
         <v>76</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>76</v>
@@ -22178,7 +22182,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
@@ -22204,7 +22208,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22227,19 +22231,19 @@
         <v>76</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>76</v>
@@ -22288,7 +22292,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
@@ -22314,7 +22318,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22337,19 +22341,19 @@
         <v>76</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>76</v>
@@ -22398,7 +22402,7 @@
         <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
@@ -22424,7 +22428,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22447,17 +22451,17 @@
         <v>76</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>76</v>
@@ -22506,7 +22510,7 @@
         <v>76</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
@@ -22532,7 +22536,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22555,17 +22559,17 @@
         <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>76</v>
@@ -22614,7 +22618,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>74</v>
@@ -22640,7 +22644,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22663,13 +22667,13 @@
         <v>76</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -22720,7 +22724,7 @@
         <v>76</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>74</v>
@@ -22741,16 +22745,16 @@
         <v>76</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22772,13 +22776,13 @@
         <v>130</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
@@ -22828,7 +22832,7 @@
         <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>74</v>
@@ -22849,16 +22853,16 @@
         <v>76</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22880,16 +22884,16 @@
         <v>130</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>76</v>
@@ -22938,7 +22942,7 @@
         <v>76</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>74</v>
@@ -22964,7 +22968,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22987,17 +22991,17 @@
         <v>76</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>76</v>
@@ -23046,7 +23050,7 @@
         <v>76</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>84</v>
@@ -23072,7 +23076,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23095,17 +23099,17 @@
         <v>76</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>76</v>
@@ -23130,13 +23134,13 @@
         <v>76</v>
       </c>
       <c r="W186" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>76</v>
@@ -23154,7 +23158,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>74</v>
@@ -23180,7 +23184,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23203,19 +23207,19 @@
         <v>76</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>76</v>
@@ -23240,13 +23244,13 @@
         <v>76</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>76</v>
@@ -23264,7 +23268,7 @@
         <v>76</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>74</v>
@@ -23290,7 +23294,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23313,19 +23317,19 @@
         <v>76</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23350,13 +23354,13 @@
         <v>76</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>76</v>
@@ -23374,7 +23378,7 @@
         <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>84</v>
@@ -23400,7 +23404,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23423,19 +23427,19 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>76</v>
@@ -23460,13 +23464,13 @@
         <v>76</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>76</v>
@@ -23484,7 +23488,7 @@
         <v>76</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -23510,7 +23514,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23533,19 +23537,19 @@
         <v>76</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>76</v>
@@ -23570,13 +23574,13 @@
         <v>76</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>76</v>
@@ -23594,7 +23598,7 @@
         <v>76</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>74</v>
@@ -23620,7 +23624,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23643,17 +23647,17 @@
         <v>76</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>76</v>
@@ -23702,7 +23706,7 @@
         <v>76</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>74</v>
@@ -23728,7 +23732,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23751,17 +23755,17 @@
         <v>76</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>76</v>
@@ -23810,7 +23814,7 @@
         <v>76</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>74</v>
@@ -23836,7 +23840,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23859,19 +23863,19 @@
         <v>76</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>76</v>
@@ -23920,7 +23924,7 @@
         <v>76</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>74</v>
@@ -23946,7 +23950,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23969,19 +23973,19 @@
         <v>76</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>76</v>
@@ -24030,7 +24034,7 @@
         <v>76</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -24056,7 +24060,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24079,17 +24083,17 @@
         <v>76</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>76</v>
@@ -24138,7 +24142,7 @@
         <v>76</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -24164,7 +24168,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24187,17 +24191,17 @@
         <v>76</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>76</v>
@@ -24246,7 +24250,7 @@
         <v>76</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>74</v>
